--- a/medicine/Autisme/Marathon_(film,_2005)/Marathon_(film,_2005).xlsx
+++ b/medicine/Autisme/Marathon_(film,_2005)/Marathon_(film,_2005).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marathon (말아톤) est un film sud-coréen réalisé par Chung Yoon-chul, sorti en 2005.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cho-won est un autiste de vingt ans qui, en grandissant, nourrit une passion pour la course à pied. Encouragé par sa mère, Cho-won commence à participer à des courses au niveau local, en préparation de son « but ultime » : participer à un vrai marathon. Pour l'aider à atteindre ses rêves, la mère de Cho Won lui trouve un entraîneur, Jung-wook, ancien champion de marathon. Cet entraîneur amer pourra-t-il surmonter son scepticisme et donner à Cho-won l'entraînement professionnel dont il a désespérément besoin ?
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Marathon
 Titre original : 말아톤
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cho Seung-woo : Cho Won
 Ahn Nae-sang : Le père de Cho Won
@@ -620,7 +638,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prix du meilleur film, meilleur réalisateur débutant, meilleur scénario, meilleure musique et meilleur acteur (Cho Seung-woo), lors des Grand Bell Awards 2005.</t>
         </is>
